--- a/database/industries/folad/folad/product/yearly.xlsx
+++ b/database/industries/folad/folad/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D0D4F-EEF7-4A7A-9630-F74958E82372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1391/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -111,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +297,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -293,7 +309,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -340,6 +356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,17 +576,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -545,8 +595,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,8 +612,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,8 +629,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -579,8 +644,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -591,8 +661,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -603,8 +678,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -613,8 +693,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -635,8 +720,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -645,172 +745,282 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="9">
+        <v>148</v>
+      </c>
+      <c r="F10" s="9">
+        <v>168</v>
+      </c>
+      <c r="G10" s="9">
+        <v>55</v>
+      </c>
+      <c r="H10" s="9">
+        <v>193</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>3988</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4170</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4038</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3961</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5563</v>
+      </c>
+      <c r="J12" s="9">
         <v>5968</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>5064</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>6093</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>5811</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>5535</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>315</v>
+      </c>
+      <c r="F13" s="11">
+        <v>299</v>
+      </c>
+      <c r="G13" s="11">
+        <v>285</v>
+      </c>
+      <c r="H13" s="11">
+        <v>267</v>
+      </c>
+      <c r="I13" s="11">
+        <v>395</v>
+      </c>
+      <c r="J13" s="11">
         <v>415</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>284</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>283</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>326</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>1467</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1325</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1467</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1167</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1370</v>
+      </c>
+      <c r="J14" s="9">
         <v>1492</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>1428</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>1459</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>1441</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>1486</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>5918</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5962</v>
+      </c>
+      <c r="G16" s="13">
+        <v>5845</v>
+      </c>
+      <c r="H16" s="13">
+        <v>5588</v>
+      </c>
+      <c r="I16" s="13">
+        <v>7328</v>
+      </c>
+      <c r="J16" s="13">
         <v>7875</v>
       </c>
-      <c r="F16" s="13">
+      <c r="K16" s="13">
         <v>6776</v>
       </c>
-      <c r="G16" s="13">
+      <c r="L16" s="13">
         <v>7835</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>7578</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>7341</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -819,8 +1029,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -829,8 +1044,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -839,10 +1059,15 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -861,8 +1086,23 @@
       <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -871,196 +1111,321 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>157</v>
+      </c>
+      <c r="F22" s="9">
+        <v>72</v>
+      </c>
+      <c r="G22" s="9">
+        <v>41</v>
+      </c>
+      <c r="H22" s="9">
+        <v>193</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
+        <v>4063</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4068</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4097</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3695</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4532</v>
+      </c>
+      <c r="J24" s="9">
         <v>5225</v>
       </c>
-      <c r="F24" s="9">
+      <c r="K24" s="9">
         <v>5021</v>
       </c>
-      <c r="G24" s="9">
+      <c r="L24" s="9">
         <v>5860</v>
       </c>
-      <c r="H24" s="9">
+      <c r="M24" s="9">
         <v>5913</v>
       </c>
-      <c r="I24" s="9">
+      <c r="N24" s="9">
         <v>5644</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
+        <v>307</v>
+      </c>
+      <c r="F25" s="11">
+        <v>303</v>
+      </c>
+      <c r="G25" s="11">
+        <v>289</v>
+      </c>
+      <c r="H25" s="11">
+        <v>254</v>
+      </c>
+      <c r="I25" s="11">
+        <v>288</v>
+      </c>
+      <c r="J25" s="11">
         <v>291</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>281</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>280</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>332</v>
       </c>
-      <c r="I25" s="11">
+      <c r="N25" s="11">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>1459</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1297</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1460</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1102</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1380</v>
+      </c>
+      <c r="J26" s="9">
         <v>1472</v>
       </c>
-      <c r="F26" s="9">
+      <c r="K26" s="9">
         <v>1413</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>1440</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>1475</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>1458</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>5986</v>
+      </c>
+      <c r="F29" s="15">
+        <v>5740</v>
+      </c>
+      <c r="G29" s="15">
+        <v>5887</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5244</v>
+      </c>
+      <c r="I29" s="15">
+        <v>6200</v>
+      </c>
+      <c r="J29" s="15">
         <v>6988</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>6715</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>7580</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>7720</v>
       </c>
-      <c r="I29" s="15">
+      <c r="N29" s="15">
         <v>7419</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1069,8 +1434,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1079,8 +1449,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1089,10 +1464,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1111,8 +1491,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1121,174 +1516,284 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>12</v>
+      <c r="E35" s="9">
+        <v>1482498</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1029204</v>
+      </c>
+      <c r="G35" s="9">
+        <v>621971</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1233965</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>45057529</v>
+      </c>
+      <c r="F36" s="11">
+        <v>63672568</v>
+      </c>
+      <c r="G36" s="11">
+        <v>64764417</v>
+      </c>
+      <c r="H36" s="11">
+        <v>50168950</v>
+      </c>
+      <c r="I36" s="11">
+        <v>68177761</v>
+      </c>
+      <c r="J36" s="11">
         <v>109603671</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>162603248</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>279716275</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>547122914</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>1035528010</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>5306711</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8141560</v>
+      </c>
+      <c r="G37" s="9">
+        <v>7516520</v>
+      </c>
+      <c r="H37" s="9">
+        <v>6286802</v>
+      </c>
+      <c r="I37" s="9">
+        <v>7179183</v>
+      </c>
+      <c r="J37" s="9">
         <v>9625028</v>
       </c>
-      <c r="F37" s="9">
+      <c r="K37" s="9">
         <v>16682463</v>
       </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9">
         <v>29673218</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>51430962</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>86865202</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>18836745</v>
+      </c>
+      <c r="F38" s="11">
+        <v>24435191</v>
+      </c>
+      <c r="G38" s="11">
+        <v>29096336</v>
+      </c>
+      <c r="H38" s="11">
+        <v>20477250</v>
+      </c>
+      <c r="I38" s="11">
+        <v>25726709</v>
+      </c>
+      <c r="J38" s="11">
         <v>38793140</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>54815238</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>82069298</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>175482869</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>333873277</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>70683483</v>
+      </c>
+      <c r="F41" s="13">
+        <v>97278523</v>
+      </c>
+      <c r="G41" s="13">
+        <v>101999244</v>
+      </c>
+      <c r="H41" s="13">
+        <v>78166967</v>
+      </c>
+      <c r="I41" s="13">
+        <v>101083653</v>
+      </c>
+      <c r="J41" s="13">
         <v>158021839</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>234100949</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>391458791</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>774036745</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>1456266489</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1297,8 +1802,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1307,8 +1817,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1317,10 +1832,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1339,8 +1859,23 @@
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1349,152 +1884,247 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>12</v>
+      <c r="E47" s="9">
+        <v>9442662420</v>
+      </c>
+      <c r="F47" s="9">
+        <v>14294500000</v>
+      </c>
+      <c r="G47" s="9">
+        <v>15170024390</v>
+      </c>
+      <c r="H47" s="9">
+        <v>6393601036</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>11089719173</v>
+      </c>
+      <c r="F48" s="11">
+        <v>15652057030</v>
+      </c>
+      <c r="G48" s="11">
+        <v>15807765926</v>
+      </c>
+      <c r="H48" s="11">
+        <v>13577523681</v>
+      </c>
+      <c r="I48" s="11">
+        <v>15043636584</v>
+      </c>
+      <c r="J48" s="11">
         <v>20976779139</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>32384634137</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>47733152730</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>92528820227</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>183474133593</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>17285703583</v>
+      </c>
+      <c r="F49" s="9">
+        <v>26869834984</v>
+      </c>
+      <c r="G49" s="9">
+        <v>26008719723</v>
+      </c>
+      <c r="H49" s="9">
+        <v>24751188976</v>
+      </c>
+      <c r="I49" s="9">
+        <v>24927718750</v>
+      </c>
+      <c r="J49" s="9">
         <v>33075697595</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>59368195730</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>105975778571</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>154912536145</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>274022719243</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>12910723098</v>
+      </c>
+      <c r="F50" s="11">
+        <v>18839777178</v>
+      </c>
+      <c r="G50" s="11">
+        <v>19928997260</v>
+      </c>
+      <c r="H50" s="11">
+        <v>18581896552</v>
+      </c>
+      <c r="I50" s="11">
+        <v>18642542754</v>
+      </c>
+      <c r="J50" s="11">
         <v>26354035326</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>38793515924</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>56992568056</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>118971436610</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>228994017147</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1503,8 +2133,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1513,8 +2148,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1523,10 +2163,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1545,8 +2190,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1555,130 +2215,210 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="9">
+        <v>17</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9">
         <v>-88737012</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L58" s="9">
         <v>-169925919</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M58" s="9">
         <v>-305369947</v>
       </c>
-      <c r="I58" s="9">
+      <c r="N58" s="9">
         <v>-522805033</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="11">
+        <v>17</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11">
         <v>-8456142</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>-12366795</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>-23661367</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>-39925069</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="9">
+        <v>17</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="9">
         <v>-27377961</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>-43165938</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>-77271004</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>-139219149</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -1686,19 +2426,34 @@
         <v>0</v>
       </c>
       <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15">
+        <v>0</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0</v>
+      </c>
+      <c r="K63" s="15">
         <v>-124571115</v>
       </c>
-      <c r="G63" s="15">
+      <c r="L63" s="15">
         <v>-225458652</v>
       </c>
-      <c r="H63" s="15">
+      <c r="M63" s="15">
         <v>-406302318</v>
       </c>
-      <c r="I63" s="15">
+      <c r="N63" s="15">
         <v>-701949251</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1707,8 +2462,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1717,8 +2477,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1727,10 +2492,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1749,8 +2519,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1759,130 +2544,210 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="9">
+        <v>17</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="9">
         <v>73866236</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>109790356</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>241752967</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>512722977</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="11">
+        <v>17</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="11">
         <v>8226321</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>17306423</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>27769595</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>46940133</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="9">
+        <v>17</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="9">
         <v>27437277</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>38903360</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>98211865</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>194654128</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -1890,15 +2755,30 @@
         <v>0</v>
       </c>
       <c r="F74" s="15">
+        <v>0</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="15">
+        <v>0</v>
+      </c>
+      <c r="K74" s="15">
         <v>109529834</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>166000139</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>367734427</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>754317238</v>
       </c>
     </row>

--- a/database/industries/folad/folad/product/yearly.xlsx
+++ b/database/industries/folad/folad/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7463A-DFC4-46BB-AC9D-E5149A9DE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB3657-6876-4D84-901E-7C300C530C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -52,28 +52,22 @@
     <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
-    <t>سایر</t>
+    <t>محصولات گرم</t>
   </si>
   <si>
     <t>هزار تن</t>
   </si>
   <si>
+    <t>محصولات سرد</t>
+  </si>
+  <si>
+    <t>تختال</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>گندله</t>
-  </si>
-  <si>
-    <t>محصولات گرم</t>
-  </si>
-  <si>
     <t>محصولات پوشش دار</t>
-  </si>
-  <si>
-    <t>محصولات سرد</t>
-  </si>
-  <si>
-    <t>تختال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -239,16 +233,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,192 +679,164 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
+      <c r="E11" s="11">
+        <v>5064</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6093</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5811</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5535</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4630</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>5064</v>
+        <v>1428</v>
       </c>
       <c r="F12" s="9">
-        <v>6093</v>
+        <v>1459</v>
       </c>
       <c r="G12" s="9">
-        <v>5811</v>
+        <v>1441</v>
       </c>
       <c r="H12" s="9">
-        <v>5535</v>
+        <v>1486</v>
       </c>
       <c r="I12" s="9">
-        <v>4630</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>284</v>
-      </c>
-      <c r="F13" s="11">
-        <v>283</v>
-      </c>
-      <c r="G13" s="11">
-        <v>326</v>
-      </c>
-      <c r="H13" s="11">
-        <v>320</v>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I13" s="11">
-        <v>308</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>1428</v>
+        <v>284</v>
       </c>
       <c r="F14" s="9">
-        <v>1459</v>
+        <v>283</v>
       </c>
       <c r="G14" s="9">
-        <v>1441</v>
+        <v>326</v>
       </c>
       <c r="H14" s="9">
-        <v>1486</v>
+        <v>320</v>
       </c>
       <c r="I14" s="9">
-        <v>1455</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>1814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>6776</v>
+      </c>
+      <c r="F16" s="13">
+        <v>7835</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7578</v>
+      </c>
+      <c r="H16" s="13">
+        <v>7341</v>
+      </c>
+      <c r="I16" s="13">
+        <v>8211</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <v>6776</v>
-      </c>
-      <c r="F17" s="13">
-        <v>7835</v>
-      </c>
-      <c r="G17" s="13">
-        <v>7578</v>
-      </c>
-      <c r="H17" s="13">
-        <v>7341</v>
-      </c>
-      <c r="I17" s="13">
-        <v>8207</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -892,259 +858,231 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
+        <v>5021</v>
+      </c>
+      <c r="F23" s="11">
+        <v>5860</v>
+      </c>
+      <c r="G23" s="11">
+        <v>5913</v>
+      </c>
+      <c r="H23" s="11">
+        <v>5644</v>
+      </c>
+      <c r="I23" s="11">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
+        <v>1413</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1440</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1475</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1458</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
+        <v>281</v>
+      </c>
+      <c r="F26" s="9">
+        <v>280</v>
+      </c>
+      <c r="G26" s="9">
+        <v>332</v>
+      </c>
+      <c r="H26" s="9">
+        <v>317</v>
+      </c>
+      <c r="I26" s="9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>5021</v>
-      </c>
-      <c r="F25" s="9">
-        <v>5860</v>
-      </c>
-      <c r="G25" s="9">
-        <v>5913</v>
-      </c>
-      <c r="H25" s="9">
-        <v>5644</v>
-      </c>
-      <c r="I25" s="9">
-        <v>4763</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11">
-        <v>281</v>
-      </c>
-      <c r="F26" s="11">
-        <v>280</v>
-      </c>
-      <c r="G26" s="11">
-        <v>332</v>
-      </c>
-      <c r="H26" s="11">
-        <v>317</v>
-      </c>
-      <c r="I26" s="11">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>1413</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1440</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1475</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1458</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>12</v>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1707</v>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
+        <v>6715</v>
+      </c>
+      <c r="F29" s="15">
+        <v>7580</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7720</v>
+      </c>
+      <c r="H29" s="15">
+        <v>7419</v>
+      </c>
+      <c r="I29" s="15">
+        <v>8236</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
-        <v>6715</v>
-      </c>
-      <c r="F31" s="15">
-        <v>7580</v>
-      </c>
-      <c r="G31" s="15">
-        <v>7720</v>
-      </c>
-      <c r="H31" s="15">
-        <v>7419</v>
-      </c>
-      <c r="I31" s="15">
-        <v>8236</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
@@ -1156,15 +1094,27 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
@@ -1176,84 +1126,86 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>162603248</v>
+      </c>
+      <c r="F36" s="11">
+        <v>279716275</v>
+      </c>
+      <c r="G36" s="11">
+        <v>547122914</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1035528010</v>
+      </c>
+      <c r="I36" s="11">
+        <v>915035363</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
+      <c r="E37" s="9">
+        <v>54815238</v>
+      </c>
+      <c r="F37" s="9">
+        <v>82069298</v>
+      </c>
+      <c r="G37" s="9">
+        <v>175482869</v>
+      </c>
+      <c r="H37" s="9">
+        <v>333873277</v>
+      </c>
+      <c r="I37" s="9">
+        <v>348129951</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>162603248</v>
-      </c>
-      <c r="F38" s="11">
-        <v>279716275</v>
-      </c>
-      <c r="G38" s="11">
-        <v>547122914</v>
-      </c>
-      <c r="H38" s="11">
-        <v>1035528010</v>
+      <c r="E38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I38" s="11">
-        <v>915035363</v>
+        <v>246252219</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -1261,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
@@ -1285,31 +1237,31 @@
         <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>54815238</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>82069298</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>175482869</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>333873277</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>348129951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
@@ -1322,81 +1274,53 @@
         <v>0</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="11">
-        <v>246252219</v>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
+        <v>234100949</v>
+      </c>
+      <c r="F42" s="15">
+        <v>391458791</v>
+      </c>
+      <c r="G42" s="15">
+        <v>774036745</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1456266489</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1607038537</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13">
-        <v>234100949</v>
-      </c>
-      <c r="F44" s="13">
-        <v>391458791</v>
-      </c>
-      <c r="G44" s="13">
-        <v>774036745</v>
-      </c>
-      <c r="H44" s="13">
-        <v>1456266489</v>
-      </c>
-      <c r="I44" s="13">
-        <v>1607038537</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
@@ -1408,15 +1332,27 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
@@ -1428,84 +1364,86 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>32384634137</v>
+      </c>
+      <c r="F49" s="11">
+        <v>47733152730</v>
+      </c>
+      <c r="G49" s="11">
+        <v>92528820227</v>
+      </c>
+      <c r="H49" s="11">
+        <v>183474133593</v>
+      </c>
+      <c r="I49" s="11">
+        <v>192113240185</v>
+      </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>12</v>
+      <c r="E50" s="9">
+        <v>38793515924</v>
+      </c>
+      <c r="F50" s="9">
+        <v>56992568056</v>
+      </c>
+      <c r="G50" s="9">
+        <v>118971436610</v>
+      </c>
+      <c r="H50" s="9">
+        <v>228994017147</v>
+      </c>
+      <c r="I50" s="9">
+        <v>238772257202</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>32384634137</v>
-      </c>
-      <c r="F51" s="11">
-        <v>47733152730</v>
-      </c>
-      <c r="G51" s="11">
-        <v>92528820227</v>
-      </c>
-      <c r="H51" s="11">
-        <v>183474133593</v>
+      <c r="E51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I51" s="11">
-        <v>192113240185</v>
+        <v>144260233743</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
@@ -1513,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -1537,31 +1475,31 @@
         <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>38793515924</v>
+        <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>56992568056</v>
+        <v>0</v>
       </c>
       <c r="G53" s="11">
-        <v>118971436610</v>
+        <v>0</v>
       </c>
       <c r="H53" s="11">
-        <v>228994017147</v>
+        <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>238772257202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -1574,59 +1512,31 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="11">
-        <v>144260233743</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
@@ -1638,15 +1548,27 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
@@ -1658,116 +1580,118 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="B61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>-88737012</v>
+      </c>
+      <c r="F61" s="11">
+        <v>-169925919</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-305369947</v>
+      </c>
+      <c r="H61" s="11">
+        <v>-522805033</v>
+      </c>
+      <c r="I61" s="11">
+        <v>-605881450</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>-88737012</v>
+        <v>-27377961</v>
       </c>
       <c r="F62" s="9">
-        <v>-169925919</v>
+        <v>-43165938</v>
       </c>
       <c r="G62" s="9">
-        <v>-305369947</v>
+        <v>-77271004</v>
       </c>
       <c r="H62" s="9">
-        <v>-522805033</v>
+        <v>-139219149</v>
       </c>
       <c r="I62" s="9">
-        <v>-604350023</v>
+        <v>-188991820</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
-        <v>-8456142</v>
-      </c>
-      <c r="F63" s="11">
-        <v>-12366795</v>
-      </c>
-      <c r="G63" s="11">
-        <v>-23661367</v>
-      </c>
-      <c r="H63" s="11">
-        <v>-39925069</v>
+      <c r="E63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I63" s="11">
-        <v>-56795450</v>
+        <v>-187237417</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-27377961</v>
+        <v>-8456142</v>
       </c>
       <c r="F64" s="9">
-        <v>-43165938</v>
+        <v>-12366795</v>
       </c>
       <c r="G64" s="9">
-        <v>-77271004</v>
+        <v>-23661367</v>
       </c>
       <c r="H64" s="9">
-        <v>-139219149</v>
+        <v>-39925069</v>
       </c>
       <c r="I64" s="9">
-        <v>-188256449</v>
+        <v>-57111382</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -1779,82 +1703,68 @@
       <c r="G65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>12</v>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="9">
-        <v>-187092733</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
-      <c r="G67" s="11">
-        <v>0</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15">
+        <v>-124571115</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-225458652</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-406302318</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-701949251</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-1039222069</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15">
-        <v>-124571115</v>
-      </c>
-      <c r="F68" s="15">
-        <v>-225458652</v>
-      </c>
-      <c r="G68" s="15">
-        <v>-406302318</v>
-      </c>
-      <c r="H68" s="15">
-        <v>-701949251</v>
-      </c>
-      <c r="I68" s="15">
-        <v>-1036494655</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
@@ -1876,195 +1786,195 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9">
+      <c r="B74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
         <v>73866236</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="11">
         <v>109790356</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="11">
         <v>241752967</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="11">
         <v>512722977</v>
       </c>
-      <c r="I74" s="9">
-        <v>310685340</v>
+      <c r="I74" s="11">
+        <v>309153913</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>27437277</v>
+      </c>
+      <c r="F75" s="9">
+        <v>38903360</v>
+      </c>
+      <c r="G75" s="9">
+        <v>98211865</v>
+      </c>
+      <c r="H75" s="9">
+        <v>194654128</v>
+      </c>
+      <c r="I75" s="9">
+        <v>159138131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="11">
+        <v>59014802</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11">
+      <c r="C77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>8226321</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F77" s="9">
         <v>17306423</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G77" s="9">
         <v>27769595</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H77" s="9">
         <v>46940133</v>
       </c>
-      <c r="I75" s="11">
-        <v>40825554</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+      <c r="I77" s="9">
+        <v>40509622</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9">
-        <v>27437277</v>
-      </c>
-      <c r="F76" s="9">
-        <v>38903360</v>
-      </c>
-      <c r="G76" s="9">
-        <v>98211865</v>
-      </c>
-      <c r="H76" s="9">
-        <v>194654128</v>
-      </c>
-      <c r="I76" s="9">
-        <v>159873502</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="11">
-        <v>0</v>
-      </c>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="9">
-        <v>59159486</v>
+      <c r="C78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>0</v>
+      <c r="B79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -2081,7 +1991,7 @@
         <v>754317238</v>
       </c>
       <c r="I80" s="15">
-        <v>570543882</v>
+        <v>567816468</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/folad/product/yearly.xlsx
+++ b/database/industries/folad/folad/product/yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB3657-6876-4D84-901E-7C300C530C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A06A0-D3E8-4BE2-B094-A798419AA017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
